--- a/reductions.xlsx
+++ b/reductions.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6328DAF-6F0D-4F94-B54A-276F7B1936D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13368" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13368" tabRatio="608" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="t1" sheetId="1" r:id="rId1"/>
@@ -3536,7 +3535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3581,7 +3580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3597,9 +3596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3637,7 +3636,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3672,23 +3671,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3724,26 +3706,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3916,11 +3881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="I390" sqref="I390"/>
+    <sheetView topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396:B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6968,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9557,7 +9522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12114,7 +12079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -12445,7 +12410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
@@ -15338,7 +15303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView topLeftCell="A281" workbookViewId="0">
@@ -17936,7 +17901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView topLeftCell="A291" workbookViewId="0">
@@ -20542,7 +20507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView topLeftCell="A298" workbookViewId="0">
@@ -23147,7 +23112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView topLeftCell="A242" workbookViewId="0">
@@ -25752,7 +25717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView topLeftCell="A292" workbookViewId="0">
@@ -28341,7 +28306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30946,11 +30911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:B322"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33535,7 +33500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
